--- a/knowledge_hub.xlsx
+++ b/knowledge_hub.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="embeddings" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="1192">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -6280,11 +6280,11 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A100" activeCellId="0" sqref="A100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="105.9"/>
@@ -7008,585 +7008,599 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="393.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="393.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>158</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="740.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" customFormat="false" ht="740.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="717.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" customFormat="false" ht="717.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="1222.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="1222.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>165</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>165</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="762.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>165</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="762.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>165</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="975.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>165</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="639.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="975.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>165</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="639.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D12" s="0" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="1120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="841" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="1120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="841" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="729.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="650.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="729.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="1244.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="650.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="1053.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="1244.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="1435.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="1053.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="516.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="1435.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="729.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="516.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="1759.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="729.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="1826.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="1759.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="1356.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="1826.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="1356.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="482.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="482.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="583.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="583.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="684.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="482.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="684.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="684.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="482.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="684.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B37" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D38" s="0" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="39" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B39" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D39" s="0" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="40" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B40" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D40" s="0" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="538.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="863.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="538.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="863.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D42" s="0" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7606,166 +7620,166 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>286</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>284</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="1681.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="1513.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="1681.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="1513.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="1020.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="818.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="1020.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="538.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="818.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="538.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="516.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="516.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7773,13 +7787,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7787,530 +7801,544 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="1244.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="17" customFormat="false" ht="1244.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B17" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="874.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="785.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="874.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="751.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="785.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="650.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="751.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="650.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="2554.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="23" customFormat="false" ht="2554.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B23" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D23" s="0" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="24" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B24" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D44" s="0" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="807.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="45" customFormat="false" ht="807.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B45" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D45" s="0" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="617.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="46" customFormat="false" ht="617.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B46" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D46" s="0" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="1647.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="1524.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="1647.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>158</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="897" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="1524.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>158</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="897" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>158</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>158</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D51" s="0" t="s">
         <v>435</v>
       </c>
     </row>
@@ -8330,711 +8358,725 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>438</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="1120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="885.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="1120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="1120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="885.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="1120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>449</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>449</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>449</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="807.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>449</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="1804.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="807.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>449</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="1804.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>449</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="930.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>449</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="930.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>449</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>449</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>449</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>449</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>449</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="908.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>449</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="908.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>449</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>449</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="3276.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="23" customFormat="false" ht="3276.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B23" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D23" s="0" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="729.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="24" customFormat="false" ht="729.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B24" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="661.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>498</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="617.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="661.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>498</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="617.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>498</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>498</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="516.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>498</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="516.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>498</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>498</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="684.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>498</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="684.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>498</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>498</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="762.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>498</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="762.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>498</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D37" s="0" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="986.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="38" customFormat="false" ht="986.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B38" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D38" s="0" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="39" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B39" s="0" t="s">
         <v>547</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D39" s="0" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="695.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="393.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="695.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>284</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="885.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="393.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>284</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="885.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>284</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>284</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>284</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="2028.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>284</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="2028.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>284</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="829.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>284</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="829.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>284</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="617.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>284</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="617.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>284</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D51" s="0" t="s">
         <v>585</v>
       </c>
     </row>
@@ -9054,711 +9096,725 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>587</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="561.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="561.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="583.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="583.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="617.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="617.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="941.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="605.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="941.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="605.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="516.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="516.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="1053.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="1053.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="762.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="762.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="494" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="717.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="494" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="717.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="729.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="729.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="762.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="628.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="762.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="538.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="628.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="661.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="538.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="661.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="941.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="2241" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="941.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="482.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="2241" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="482.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="1098.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="1098.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="1703.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="930.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="1703.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="975.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="930.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="975.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>733</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D51" s="0" t="s">
         <v>735</v>
       </c>
     </row>
@@ -9778,711 +9834,725 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="919.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>737</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="561.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="919.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="561.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="785.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="751.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="785.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="561.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="751.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="1412.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="561.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="1109.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="1412.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="841" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="1109.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="841" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="762.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="919.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="762.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="841" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="919.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="897" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="841" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="661.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="897" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="661.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="695.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="796.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="695.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="1053.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="796.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="1211.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="1053.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="785.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="1211.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="964.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="785.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="482.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="964.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="785.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="482.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="1109.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="785.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="661.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="1109.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="1008.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="661.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="393.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="1008.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="650.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="393.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="773.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="650.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="605.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="773.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="605.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="684.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="919.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="684.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="494" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="919.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="583.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="494" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="583.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="773.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="650.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="773.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="650.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="986.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="1132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="986.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="482.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="1132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="460.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="482.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="516.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="460.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="952.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="516.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="1053.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="952.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="1053.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="695.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="695.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D51" s="0" t="s">
         <v>885</v>
       </c>
     </row>
@@ -10502,711 +10572,725 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="1423.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>887</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>888</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="1053.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="1423.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>886</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="1267.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="1053.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>886</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="2140.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="1267.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>886</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="2073.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="2140.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>886</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="661.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="2073.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>886</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="919.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="661.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>886</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="2520.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="919.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>886</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="1176.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="2520.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>886</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="1176.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>911</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="796.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>914</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>915</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="1289.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="796.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="1289.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="494" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="1311.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="494" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="538.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="1311.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="1176.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="538.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="1176.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="628.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="628.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="1053.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="1053.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>914</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>978</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D32" s="0" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="33" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>981</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B33" s="0" t="s">
         <v>982</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D33" s="0" t="s">
         <v>984</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>914</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>985</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>981</v>
+        <v>914</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="561.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>981</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="684.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="561.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>981</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="2700" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="684.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>981</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="583.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="2700" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>981</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="583.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>1000</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D39" s="0" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="740.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="885.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="740.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="785.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="885.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="941.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="785.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="1524.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="941.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="1446.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="1524.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="1211.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="1446.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="1211.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="1401.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="1200" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="1401.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="1020.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="1200" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="1468.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="1020.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>436</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="1468.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>1036</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D51" s="0" t="s">
         <v>1038</v>
       </c>
     </row>
@@ -11226,264 +11310,264 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>1039</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>1040</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>1043</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>1039</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>1039</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="706.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>1039</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="706.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>1039</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>1058</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>1061</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>1065</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="1031.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="11" customFormat="false" ht="1031.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>1039</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>1068</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="1031.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>1061</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="1031.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>1061</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>1061</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>1061</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>1061</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>1086</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11491,13 +11575,13 @@
         <v>1089</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11505,432 +11589,446 @@
         <v>1089</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="639.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="516.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="639.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="B47" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="516.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>1180</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D48" s="0" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="628.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>886</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="3276.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="628.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>886</v>
       </c>
       <c r="B49" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="3276.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>1186</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D50" s="0" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="51" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>1089</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B51" s="0" t="s">
         <v>1189</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D51" s="0" t="s">
         <v>1191</v>
       </c>
     </row>
